--- a/급여계산/Example/급여 양식-2021011.xlsx
+++ b/급여계산/Example/급여 양식-2021011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dae48\Desktop\GIT\ToyProject\급여계산\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FD4FC-8830-4F75-8B01-8237A14F759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DB363-68D1-4BE0-AABD-80E0B42F02CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11325" xr2:uid="{F9C9BDF9-494D-405F-86A7-9479A3092C13}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{F9C9BDF9-494D-405F-86A7-9479A3092C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원동규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E87546-016F-4799-9158-0A9912B8416F}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,6 +737,58 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
